--- a/더미데이터test/testPlan.xlsx
+++ b/더미데이터test/testPlan.xlsx
@@ -5,7 +5,7 @@
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MIT-303\Desktop\gitDirectory\KDTProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MIT-303\Desktop\gitDirectory\KDTProject\더미데이터test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
@@ -19,18 +19,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <x:si>
-    <x:t>PP-킥보드K2-01</x:t>
+    <x:t>전동킥보드</x:t>
   </x:si>
   <x:si>
-    <x:t>PP-자전거A3-01</x:t>
+    <x:t>생산시작일</x:t>
   </x:si>
   <x:si>
-    <x:t>PP-자전거B3-01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전동킥보드</x:t>
+    <x:t>총생산수량</x:t>
   </x:si>
   <x:si>
     <x:t>전기자전거B</x:t>
@@ -39,19 +36,10 @@
     <x:t>전기자전거A</x:t>
   </x:si>
   <x:si>
-    <x:t>총생산수량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생산시작일</x:t>
-  </x:si>
-  <x:si>
     <x:t>생산종료일</x:t>
   </x:si>
   <x:si>
     <x:t>생산상품명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생산계획코드</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -155,7 +143,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -238,7 +225,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -273,7 +259,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -318,7 +303,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -362,7 +346,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -447,7 +430,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -468,7 +450,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -499,7 +480,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -810,7 +790,7 @@
   <x:dimension ref="A1:E4"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="F13" activeCellId="0" sqref="F13:F13"/>
+      <x:selection activeCell="F11" activeCellId="0" sqref="F11:F11"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.39999999999999857891"/>
@@ -822,74 +802,66 @@
   <x:sheetData>
     <x:row r="1" spans="1:5">
       <x:c r="A1" s="1" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B1" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B1" s="2" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C1" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D1" s="2" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="E1" s="1" t="s">
-        <x:v>6</x:v>
-      </x:c>
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D1" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E1" s="1"/>
     </x:row>
     <x:row r="2" spans="1:5">
       <x:c r="A2" s="3" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B2" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B2" s="4">
+        <x:v>45776</x:v>
       </x:c>
       <x:c r="C2" s="4">
-        <x:v>45776</x:v>
-      </x:c>
-      <x:c r="D2" s="4">
         <x:v>45807</x:v>
       </x:c>
-      <x:c r="E2" s="3">
+      <x:c r="D2" s="3">
         <x:v>100</x:v>
       </x:c>
+      <x:c r="E2" s="3"/>
     </x:row>
     <x:row r="3" spans="1:5">
       <x:c r="A3" s="3" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B3" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B3" s="4">
+        <x:v>45776</x:v>
       </x:c>
       <x:c r="C3" s="4">
-        <x:v>45776</x:v>
-      </x:c>
-      <x:c r="D3" s="4">
         <x:v>45808</x:v>
       </x:c>
-      <x:c r="E3" s="3">
+      <x:c r="D3" s="3">
         <x:v>50</x:v>
       </x:c>
+      <x:c r="E3" s="3"/>
     </x:row>
     <x:row r="4" spans="1:5">
       <x:c r="A4" s="3" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B4" s="3" t="s">
-        <x:v>3</x:v>
+      <x:c r="B4" s="4">
+        <x:v>45776</x:v>
       </x:c>
       <x:c r="C4" s="4">
-        <x:v>45776</x:v>
-      </x:c>
-      <x:c r="D4" s="4">
         <x:v>45809</x:v>
       </x:c>
-      <x:c r="E4" s="3">
+      <x:c r="D4" s="3">
         <x:v>70</x:v>
       </x:c>
+      <x:c r="E4" s="3"/>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>